--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43954,6 +43954,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         <v>600</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,43 @@
         <v>600</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44098,6 +44098,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44135,6 +44135,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44170,6 +44170,43 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,6 +44207,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44244,6 +44244,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44281,6 +44281,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44318,6 +44318,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44355,6 +44355,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44392,6 +44392,76 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44462,6 +44462,41 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>86100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,6 +44497,43 @@
         <v>86100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44534,6 +44534,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44571,6 +44571,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44608,6 +44608,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44643,6 +44643,78 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44715,6 +44715,41 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1811"/>
+  <dimension ref="A1:I1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65085,6 +65085,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1812" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1812"/>
+  <dimension ref="A1:I1813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65120,6 +65120,43 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1813" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1813" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1813"/>
+  <dimension ref="A1:I1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65157,6 +65157,43 @@
         </is>
       </c>
     </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1814" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1814" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1814"/>
+  <dimension ref="A1:I1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65194,6 +65194,41 @@
         </is>
       </c>
     </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1815" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1815"/>
+  <dimension ref="A1:I1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65229,6 +65229,43 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1816" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1816" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1816"/>
+  <dimension ref="A1:I1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65266,6 +65266,43 @@
         </is>
       </c>
     </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1817" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1817"/>
+  <dimension ref="A1:I1818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65303,6 +65303,41 @@
         </is>
       </c>
     </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>102000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1818"/>
+  <dimension ref="A1:I1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65338,6 +65338,41 @@
         <v>102000</v>
       </c>
     </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>49400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1819"/>
+  <dimension ref="A1:I1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65373,6 +65373,43 @@
         <v>49400</v>
       </c>
     </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1820" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1820"/>
+  <dimension ref="A1:I1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65410,6 +65410,41 @@
         </is>
       </c>
     </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1821"/>
+  <dimension ref="A1:I1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65445,6 +65445,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>114000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1822"/>
+  <dimension ref="A1:I1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65480,6 +65480,43 @@
         <v>114000</v>
       </c>
     </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1823" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1823"/>
+  <dimension ref="A1:I1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65517,6 +65517,43 @@
         </is>
       </c>
     </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1824" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1824"/>
+  <dimension ref="A1:I1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65554,6 +65554,41 @@
         </is>
       </c>
     </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7010.xlsx
+++ b/data/7010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1825"/>
+  <dimension ref="A1:I1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65589,6 +65589,43 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>HOOVER</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1826" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
